--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/15/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/E/15/seed5/result_data_KNN.xlsx
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.77</v>
+        <v>17.386</v>
       </c>
     </row>
     <row r="13">
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.428</v>
+        <v>16.472</v>
       </c>
     </row>
     <row r="28">
@@ -984,7 +984,7 @@
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>16.998</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="33">
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>16.748</v>
+        <v>16.652</v>
       </c>
     </row>
     <row r="37">
@@ -1086,7 +1086,7 @@
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>16.678</v>
+        <v>16.631</v>
       </c>
     </row>
     <row r="39">
@@ -1222,7 +1222,7 @@
         <v>-8.09</v>
       </c>
       <c r="E46" t="n">
-        <v>17.25</v>
+        <v>16.966</v>
       </c>
     </row>
     <row r="47">
@@ -1358,7 +1358,7 @@
         <v>-8.01</v>
       </c>
       <c r="E54" t="n">
-        <v>16.756</v>
+        <v>16.754</v>
       </c>
     </row>
     <row r="55">
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.676</v>
+        <v>16.354</v>
       </c>
     </row>
     <row r="56">
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.096</v>
+        <v>16.351</v>
       </c>
     </row>
     <row r="57">
@@ -1579,7 +1579,7 @@
         <v>-6.43</v>
       </c>
       <c r="E67" t="n">
-        <v>16.762</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="68">
@@ -1613,7 +1613,7 @@
         <v>-6.88</v>
       </c>
       <c r="E69" t="n">
-        <v>17.002</v>
+        <v>17.386</v>
       </c>
     </row>
     <row r="70">
@@ -1664,7 +1664,7 @@
         <v>-7.37</v>
       </c>
       <c r="E72" t="n">
-        <v>16.828</v>
+        <v>16.939</v>
       </c>
     </row>
     <row r="73">
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.964</v>
+        <v>16.886</v>
       </c>
     </row>
     <row r="84">
@@ -1902,7 +1902,7 @@
         <v>-8.17</v>
       </c>
       <c r="E86" t="n">
-        <v>16.416</v>
+        <v>16.542</v>
       </c>
     </row>
     <row r="87">
@@ -1987,7 +1987,7 @@
         <v>-5.79</v>
       </c>
       <c r="E91" t="n">
-        <v>17.772</v>
+        <v>17.577</v>
       </c>
     </row>
     <row r="92">
@@ -2021,7 +2021,7 @@
         <v>-6.1</v>
       </c>
       <c r="E93" t="n">
-        <v>17.108</v>
+        <v>17.22</v>
       </c>
     </row>
     <row r="94">
@@ -2123,7 +2123,7 @@
         <v>-7.98</v>
       </c>
       <c r="E99" t="n">
-        <v>16.558</v>
+        <v>16.659</v>
       </c>
     </row>
     <row r="100">
